--- a/imvickykumar999.xlsx
+++ b/imvickykumar999.xlsx
@@ -9,14 +9,13 @@
   <sheets>
     <sheet name="Sheet 0" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet 1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet 2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="48">
   <si>
     <t>center_id</t>
   </si>
@@ -87,34 +86,34 @@
     <t>slots</t>
   </si>
   <si>
-    <t>EVAA HOSPITAL</t>
-  </si>
-  <si>
-    <t>TILAK NAGAR</t>
+    <t>Saket Hospital Mansarover</t>
+  </si>
+  <si>
+    <t>Mansarover</t>
   </si>
   <si>
     <t>Rajasthan</t>
   </si>
   <si>
-    <t>Jaipur I</t>
-  </si>
-  <si>
-    <t>Jaipur I Urban</t>
+    <t>Jaipur II</t>
+  </si>
+  <si>
+    <t>Jaipur II Urban</t>
   </si>
   <si>
     <t>09:00:00</t>
   </si>
   <si>
-    <t>16:00:00</t>
+    <t>17:00:00</t>
   </si>
   <si>
     <t>Paid</t>
   </si>
   <si>
-    <t>9696c0c0-7f95-49df-a40b-75f9da11a423</t>
-  </si>
-  <si>
-    <t>04-09-2021</t>
+    <t>3a8a6f8b-f7b8-4dd9-9b15-8f47c6700396</t>
+  </si>
+  <si>
+    <t>05-09-2021</t>
   </si>
   <si>
     <t>780</t>
@@ -132,43 +131,34 @@
     <t>01:00PM-03:00PM</t>
   </si>
   <si>
-    <t>03:00PM-04:00PM</t>
-  </si>
-  <si>
-    <t>Soni Hospital</t>
-  </si>
-  <si>
-    <t>Soni Hospital Jaipur</t>
-  </si>
-  <si>
-    <t>10:00:00</t>
-  </si>
-  <si>
-    <t>14:00:00</t>
-  </si>
-  <si>
-    <t>981f037c-781c-4ba8-b1ad-e55bc4a3d308</t>
-  </si>
-  <si>
-    <t>10:00AM-11:00AM</t>
-  </si>
-  <si>
-    <t>11:00AM-12:00PM</t>
-  </si>
-  <si>
-    <t>12:00PM-01:00PM</t>
-  </si>
-  <si>
-    <t>01:00PM-02:00PM</t>
-  </si>
-  <si>
-    <t>Mahatma Gandhi Hos City Center</t>
-  </si>
-  <si>
-    <t>City Center Raja Park</t>
-  </si>
-  <si>
-    <t>9387a532-79a8-45dc-8abc-976c894d0a8a</t>
+    <t>03:00PM-05:00PM</t>
+  </si>
+  <si>
+    <t>Indus Jaipur Hospital Cvc</t>
+  </si>
+  <si>
+    <t>Mansarovar</t>
+  </si>
+  <si>
+    <t>09:30:00</t>
+  </si>
+  <si>
+    <t>17:30:00</t>
+  </si>
+  <si>
+    <t>0cad49df-41e3-40a2-a492-78cf244e613f</t>
+  </si>
+  <si>
+    <t>09:30AM-11:30AM</t>
+  </si>
+  <si>
+    <t>11:30AM-01:30PM</t>
+  </si>
+  <si>
+    <t>01:30PM-03:30PM</t>
+  </si>
+  <si>
+    <t>03:30PM-05:30PM</t>
   </si>
 </sst>
 </file>
@@ -608,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>722652</v>
+        <v>725385</v>
       </c>
       <c r="C2" t="s">
         <v>23</v>
@@ -626,7 +616,7 @@
         <v>27</v>
       </c>
       <c r="H2">
-        <v>302004</v>
+        <v>302020</v>
       </c>
       <c r="I2" t="s">
         <v>28</v>
@@ -650,13 +640,13 @@
         <v>32</v>
       </c>
       <c r="P2">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c r="Q2">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="R2">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
         <v>33</v>
@@ -682,7 +672,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>722652</v>
+        <v>725385</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
@@ -700,7 +690,7 @@
         <v>27</v>
       </c>
       <c r="H3">
-        <v>302004</v>
+        <v>302020</v>
       </c>
       <c r="I3" t="s">
         <v>28</v>
@@ -724,13 +714,13 @@
         <v>32</v>
       </c>
       <c r="P3">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c r="Q3">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="R3">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="S3" t="s">
         <v>33</v>
@@ -756,7 +746,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>722652</v>
+        <v>725385</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
@@ -774,7 +764,7 @@
         <v>27</v>
       </c>
       <c r="H4">
-        <v>302004</v>
+        <v>302020</v>
       </c>
       <c r="I4" t="s">
         <v>28</v>
@@ -798,13 +788,13 @@
         <v>32</v>
       </c>
       <c r="P4">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c r="Q4">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="R4">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="S4" t="s">
         <v>33</v>
@@ -830,7 +820,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>722652</v>
+        <v>725385</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
@@ -848,7 +838,7 @@
         <v>27</v>
       </c>
       <c r="H5">
-        <v>302004</v>
+        <v>302020</v>
       </c>
       <c r="I5" t="s">
         <v>28</v>
@@ -872,13 +862,13 @@
         <v>32</v>
       </c>
       <c r="P5">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c r="Q5">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="R5">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="S5" t="s">
         <v>33</v>
@@ -905,386 +895,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:24">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>573160</v>
-      </c>
-      <c r="C2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2">
-        <v>302004</v>
-      </c>
-      <c r="I2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2">
-        <v>26</v>
-      </c>
-      <c r="L2">
-        <v>75</v>
-      </c>
-      <c r="M2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P2">
-        <v>44</v>
-      </c>
-      <c r="Q2">
-        <v>27</v>
-      </c>
-      <c r="R2">
-        <v>17</v>
-      </c>
-      <c r="S2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T2">
-        <v>18</v>
-      </c>
-      <c r="U2">
-        <v>44</v>
-      </c>
-      <c r="V2" t="b">
-        <v>0</v>
-      </c>
-      <c r="W2" t="s">
-        <v>34</v>
-      </c>
-      <c r="X2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>573160</v>
-      </c>
-      <c r="C3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3">
-        <v>302004</v>
-      </c>
-      <c r="I3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K3">
-        <v>26</v>
-      </c>
-      <c r="L3">
-        <v>75</v>
-      </c>
-      <c r="M3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" t="s">
-        <v>43</v>
-      </c>
-      <c r="O3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P3">
-        <v>44</v>
-      </c>
-      <c r="Q3">
-        <v>27</v>
-      </c>
-      <c r="R3">
-        <v>17</v>
-      </c>
-      <c r="S3" t="s">
-        <v>33</v>
-      </c>
-      <c r="T3">
-        <v>18</v>
-      </c>
-      <c r="U3">
-        <v>44</v>
-      </c>
-      <c r="V3" t="b">
-        <v>0</v>
-      </c>
-      <c r="W3" t="s">
-        <v>34</v>
-      </c>
-      <c r="X3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>573160</v>
-      </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4">
-        <v>302004</v>
-      </c>
-      <c r="I4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4">
-        <v>26</v>
-      </c>
-      <c r="L4">
-        <v>75</v>
-      </c>
-      <c r="M4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O4" t="s">
-        <v>32</v>
-      </c>
-      <c r="P4">
-        <v>44</v>
-      </c>
-      <c r="Q4">
-        <v>27</v>
-      </c>
-      <c r="R4">
-        <v>17</v>
-      </c>
-      <c r="S4" t="s">
-        <v>33</v>
-      </c>
-      <c r="T4">
-        <v>18</v>
-      </c>
-      <c r="U4">
-        <v>44</v>
-      </c>
-      <c r="V4" t="b">
-        <v>0</v>
-      </c>
-      <c r="W4" t="s">
-        <v>34</v>
-      </c>
-      <c r="X4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>573160</v>
-      </c>
-      <c r="C5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5">
-        <v>302004</v>
-      </c>
-      <c r="I5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" t="s">
-        <v>42</v>
-      </c>
-      <c r="K5">
-        <v>26</v>
-      </c>
-      <c r="L5">
-        <v>75</v>
-      </c>
-      <c r="M5" t="s">
-        <v>30</v>
-      </c>
-      <c r="N5" t="s">
-        <v>43</v>
-      </c>
-      <c r="O5" t="s">
-        <v>32</v>
-      </c>
-      <c r="P5">
-        <v>44</v>
-      </c>
-      <c r="Q5">
-        <v>27</v>
-      </c>
-      <c r="R5">
-        <v>17</v>
-      </c>
-      <c r="S5" t="s">
-        <v>33</v>
-      </c>
-      <c r="T5">
-        <v>18</v>
-      </c>
-      <c r="U5">
-        <v>44</v>
-      </c>
-      <c r="V5" t="b">
-        <v>0</v>
-      </c>
-      <c r="W5" t="s">
-        <v>34</v>
-      </c>
-      <c r="X5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W5"/>
   <sheetViews>
@@ -1365,13 +975,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>714454</v>
+        <v>606834</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -1383,13 +993,13 @@
         <v>27</v>
       </c>
       <c r="H2">
-        <v>302004</v>
+        <v>302020</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="K2">
         <v>26</v>
@@ -1401,19 +1011,19 @@
         <v>30</v>
       </c>
       <c r="N2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="O2" t="s">
         <v>32</v>
       </c>
       <c r="P2">
-        <v>181</v>
+        <v>85</v>
       </c>
       <c r="Q2">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="R2">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="S2" t="s">
         <v>33</v>
@@ -1428,7 +1038,7 @@
         <v>34</v>
       </c>
       <c r="W2" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -1436,13 +1046,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>714454</v>
+        <v>606834</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
         <v>25</v>
@@ -1454,13 +1064,13 @@
         <v>27</v>
       </c>
       <c r="H3">
-        <v>302004</v>
+        <v>302020</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="K3">
         <v>26</v>
@@ -1472,19 +1082,19 @@
         <v>30</v>
       </c>
       <c r="N3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="O3" t="s">
         <v>32</v>
       </c>
       <c r="P3">
-        <v>181</v>
+        <v>85</v>
       </c>
       <c r="Q3">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="R3">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="S3" t="s">
         <v>33</v>
@@ -1499,7 +1109,7 @@
         <v>34</v>
       </c>
       <c r="W3" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -1507,13 +1117,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>714454</v>
+        <v>606834</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
         <v>25</v>
@@ -1525,13 +1135,13 @@
         <v>27</v>
       </c>
       <c r="H4">
-        <v>302004</v>
+        <v>302020</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="J4" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="K4">
         <v>26</v>
@@ -1543,19 +1153,19 @@
         <v>30</v>
       </c>
       <c r="N4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="O4" t="s">
         <v>32</v>
       </c>
       <c r="P4">
-        <v>181</v>
+        <v>85</v>
       </c>
       <c r="Q4">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="R4">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="S4" t="s">
         <v>33</v>
@@ -1570,7 +1180,7 @@
         <v>34</v>
       </c>
       <c r="W4" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -1578,13 +1188,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>714454</v>
+        <v>606834</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -1596,13 +1206,13 @@
         <v>27</v>
       </c>
       <c r="H5">
-        <v>302004</v>
+        <v>302020</v>
       </c>
       <c r="I5" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="J5" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="K5">
         <v>26</v>
@@ -1614,19 +1224,19 @@
         <v>30</v>
       </c>
       <c r="N5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="O5" t="s">
         <v>32</v>
       </c>
       <c r="P5">
-        <v>181</v>
+        <v>85</v>
       </c>
       <c r="Q5">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="R5">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="S5" t="s">
         <v>33</v>
@@ -1641,7 +1251,7 @@
         <v>34</v>
       </c>
       <c r="W5" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
